--- a/medicine/Enfance/Sans_Atout_et_le_Cheval_fantôme/Sans_Atout_et_le_Cheval_fantôme.xlsx
+++ b/medicine/Enfance/Sans_Atout_et_le_Cheval_fantôme/Sans_Atout_et_le_Cheval_fantôme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sans_Atout_et_le_Cheval_fant%C3%B4me</t>
+          <t>Sans_Atout_et_le_Cheval_fantôme</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le livre Sans Atout et le Cheval fantôme est un roman policier pour la jeunesse de Boileau-Narcejac, publié en 1971 par Hatier / Rageot jeunesse. C'est le premier roman de la série de huit consacrée aux aventures de Sans-Atout. Considéré comme un classique de la littérature policière jeunesse, il est souvent proposé à l'étude dans le cadre du parcours scolaire, en France.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sans_Atout_et_le_Cheval_fant%C3%B4me</t>
+          <t>Sans_Atout_et_le_Cheval_fantôme</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">François Robion est un adolescent parisien de 15 ans. Un jour, un de ses professeurs déclare que le sens de l'ordre est le meilleur atout dans la vie. Or François est très désordonné, au grand désespoir de sa mère. C'est pour cela qu'on lui a donné le sobriquet de « Sans Atout ». La famille de François possède un château en Bretagne, dans le Finistère: le château de Kermoal. Ce château est gardé par monsieur et madame Jaouen et leur fils Jean-Marc, que François considère comme des membres de sa famille. N'ayant pas le temps de s'occuper de la bâtisse, le père de François, un célèbre avocat, décide de se séparer . 
 François est très triste et part pour ses dernières vacances à Kermoal, le cœur serré. Il est bien décidé à dissuader tout éventuel acheteur. En arrivant au château, les Jaouen ont un comportement étrange. François ne tarde pas à en découvrir la raison : depuis une semaine, tous les soirs à minuit, on entend le bruit d'un cheval dans la lande, sans voir d'animal pour autant. La rumeur d'un cheval-fantôme se répand. Très surpris et sceptique, François décide de mener l'enquête pour comprendre la vérité.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sans_Atout_et_le_Cheval_fant%C3%B4me</t>
+          <t>Sans_Atout_et_le_Cheval_fantôme</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,9 +562,11 @@
           <t>Écriture et publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sans Atout et le cheval fantôme s'inscrit parmi les premières collections de littérature policière enfantines, dans les années 1970. Ces collections reprennent des éléments qui font le succès du genre chez les adultes, notamment le format poche[1]. Publié pour la première fois en 1971, Sans Atout et le cheval fantôme est régulièrement réédité au catalogue de Gallimard et de sa filiale Folio jeunesse.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sans Atout et le cheval fantôme s'inscrit parmi les premières collections de littérature policière enfantines, dans les années 1970. Ces collections reprennent des éléments qui font le succès du genre chez les adultes, notamment le format poche. Publié pour la première fois en 1971, Sans Atout et le cheval fantôme est régulièrement réédité au catalogue de Gallimard et de sa filiale Folio jeunesse.
 </t>
         </is>
       </c>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sans_Atout_et_le_Cheval_fant%C3%B4me</t>
+          <t>Sans_Atout_et_le_Cheval_fantôme</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,10 +595,12 @@
           <t>Analyse</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom du héros est un double jeu de mots : François est aussi très intelligent et perspicace et, au bridge, l'annonce « sans atout » est l'enchère (bridge) la plus forte.
-Le roman offre une vision légèrement misogyne, en effet les personnages masculins sont globalement sceptiques face à la manifestation du « cheval fantôme » tandis que Marguerite, la femme de chambre du château, est réellement terrorisée[2]. Il montre aussi un certain parisianisme : le château sert de résidence de vacances à la riche famille de François, les Bretons qui s'occupent du château (les Jaouen) sont abusés, la femme de chambre est crédule et les légendes bretonnes locales autour des chevaux-fantômes servent d'appui à la tromperie mise en place par Van der Troost. 
+Le roman offre une vision légèrement misogyne, en effet les personnages masculins sont globalement sceptiques face à la manifestation du « cheval fantôme » tandis que Marguerite, la femme de chambre du château, est réellement terrorisée. Il montre aussi un certain parisianisme : le château sert de résidence de vacances à la riche famille de François, les Bretons qui s'occupent du château (les Jaouen) sont abusés, la femme de chambre est crédule et les légendes bretonnes locales autour des chevaux-fantômes servent d'appui à la tromperie mise en place par Van der Troost. 
 </t>
         </is>
       </c>
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sans_Atout_et_le_Cheval_fant%C3%B4me</t>
+          <t>Sans_Atout_et_le_Cheval_fantôme</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,9 +629,11 @@
           <t>Réception et influence</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le roman reçoit un très bon accueil, Raymond Perrin estimant (entre autres) dans son étude du polar jeunesse qu'il représente l'une des œuvres les plus originales et passionnantes des premières collections policières[1]. Ce roman est devenu un classique, souvent étudié dans un but pédagogique à l'école.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le roman reçoit un très bon accueil, Raymond Perrin estimant (entre autres) dans son étude du polar jeunesse qu'il représente l'une des œuvres les plus originales et passionnantes des premières collections policières. Ce roman est devenu un classique, souvent étudié dans un but pédagogique à l'école.
 </t>
         </is>
       </c>
